--- a/TestData/NSDLScenarios.xlsx
+++ b/TestData/NSDLScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhi\Downloads\rest_assured-automation-framework-master\rest_assured-automation-framework-master\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939FD32-623D-4257-8FFF-C00DBDE4F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD5B4C-81D7-4971-8531-13221EC5492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58F25138-721F-44BA-A02D-C947BA66B0C6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -80,10 +80,13 @@
     <t>LogisticsOnSearchResponse</t>
   </si>
   <si>
-    <t>End_Point</t>
-  </si>
-  <si>
-    <t>/search</t>
+    <t>RetailsSearchResponseWithoutHeader</t>
+  </si>
+  <si>
+    <t>Scenarios Type</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
@@ -471,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6FA609-9782-4569-A9FB-7304D0D58691}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -498,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,6 +528,9 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -536,6 +542,9 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -546,6 +555,23 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
